--- a/biology/Botanique/Chusquea/Chusquea.xlsx
+++ b/biology/Botanique/Chusquea/Chusquea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chusquea est un genre de bambous, originaire d'Amérique. C'est le plus fourni en espèces du monde, on estime qu'il contient 180 espèces.
 Les espèces du genre Chusquea se distinguent des autres bambous par leurs  bourgeons multiples, indépendants et dimorphes sur chacun des nœuds.
@@ -512,14 +524,16 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Chusquea se caractérisent par des tiges (chaumes) pleines, généralement fistuleuses avec l'âge, habituellement ramifiées. La gaine foliaire est sans oreillettes. Le limbe de forme triangulaire, articulé avec la gaine, est généralement dressé, sans pseudo-pétiole.
-Les nœuds au milieu de la tige présentent un bourgeon central plus grand et deux ou plusieurs bourgeons subsidiaires, plus petits, subégaux, indépendants, linéaires ou verticillés. Tous les bourgeons ont deux ou rarement trois tailles. Ce polymorphisme persiste pendant le développement des ramifications[2].
-Les Chusquea possèdent des rhizomes « amphimorphe » (de « amphi » des deux côtés et « morpho », forme, pour définir des rhizomes de morphologie composite) c'est-à-dire à croissance à la fois monopodiale (leptomorphe) et sympodiale (pachymorphe)[3].
+Les nœuds au milieu de la tige présentent un bourgeon central plus grand et deux ou plusieurs bourgeons subsidiaires, plus petits, subégaux, indépendants, linéaires ou verticillés. Tous les bourgeons ont deux ou rarement trois tailles. Ce polymorphisme persiste pendant le développement des ramifications.
+Les Chusquea possèdent des rhizomes « amphimorphe » (de « amphi » des deux côtés et « morpho », forme, pour définir des rhizomes de morphologie composite) c'est-à-dire à croissance à la fois monopodiale (leptomorphe) et sympodiale (pachymorphe).
 L'inflorescence est généralement une panicule, plus rarement un racème pauciflore.
 Les épillets sont cylindriques (térètes), ou comprimés latéralement ou dorsalement. Ils présentent deux glumes et deux lemmes stériles. Le rachillet ne se prolonge pas au-delà de la paléole. Les fleurs sont bisexuées (hermaphrodites). A maturité, la  désarticulation se fait au-dessus des glumes et sous les lemmes stériles.
-La fleur compte trois lodicules, trois étamines au filament filiforme, libre, et à l'anthère linéaire, et un ovaire glabre portant deux stigmates. Le fruit est un caryopse[2].
+La fleur compte trois lodicules, trois étamines au filament filiforme, libre, et à l'anthère linéaire, et un ovaire glabre portant deux stigmates. Le fruit est un caryopse.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition du genre Chusquea a la plus grande plage latitudinale, entre 24°N à 47°S, s'étendant du Mexique à l'Argentine et au Chili, avec un groupe important au Brésil, et avec une espèce à aire disjointe dans l'archipel Juan Fernández et une autre aux Antilles.     
 C'est principalement un genre andin avec 42 % des espèces présentes dans la cordillère entre 2 500 à 3 500 mètres d'altitude, avec un taux d'endémisme de 96 % ; l'aire suivante la plus riche en espèces se trouve dans le sud-est du Brésil et dans certaines parties de l'Uruguay, de l'Argentine et du Paraguay avec 31 % des espèces.
@@ -583,16 +599,55 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon GRIN[4] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GRIN :
 Coliquea Steud. ex Bibra, nom. inval.
 Dendragrostis Nees ex B. D. Jacks., nom. inval.
 Mustelia Steud.
 Neurolepis Meisn.
 Rettbergia Raddi
-Swallenochloa McClure
-Liste d'espèces
-Selon The Plant List            (9 décembre 2017)[5] :
+Swallenochloa McClure</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chusquea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chusquea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (9 décembre 2017) :
 Chusquea abietifolia Griseb.
 Chusquea acuminata Döll
 Chusquea acuminatissima (Munro) L.G.Clark
@@ -750,37 +805,39 @@
 Chusquea vulcanalis (Soderstr. &amp; C.E.Calderón) L.G.Clark
 Chusquea wilkesii Munro
 Chusquea windischii L.G.Clark
-Selon Paleobiology Database                   (9 décembre 2017)[6] :
+Selon Paleobiology Database                   (9 décembre 2017) :
 Chusquea oxyphylla
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Chusquea</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chusquea</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chaumes sont utilisés par les autochtones dans la construction des maisons, la confection de paniers, et dans des cérémonies rituelles. Certaines espèces sont colonises les milieux perturbés de la forêt andine.
 </t>
